--- a/Резы/Респа для ВЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-71б на 2019 год.xlsx
@@ -2117,7 +2117,7 @@
     <col width="61.9" customWidth="1" min="6" max="6"/>
     <col width="106.85" customWidth="1" min="7" max="7"/>
     <col width="106.85" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -2320,10 +2320,8 @@
           <t>Электронные средства массовой информации в современном обществе: ПР (общ)</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>102, 237</t>
-        </is>
+      <c r="I6" s="3" t="n">
+        <v>102</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -2694,7 +2692,7 @@
       <c r="H19" s="12" t="n"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
-          <t>II
+          <t>207
 215</t>
         </is>
       </c>
@@ -2763,7 +2761,7 @@
     <col width="92.34999999999999" customWidth="1" min="5" max="5"/>
     <col width="37.25" customWidth="1" min="6" max="6"/>
     <col width="60.45" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -2945,8 +2943,11 @@
           <t>Наноэлектроника: ДИФ (общ)</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>237</v>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>102
+237</t>
+        </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
@@ -2973,7 +2974,9 @@
       <c r="E7" s="20" t="n"/>
       <c r="F7" s="21" t="n"/>
       <c r="G7" s="12" t="n"/>
-      <c r="H7" s="10" t="n"/>
+      <c r="H7" s="11" t="n">
+        <v>237</v>
+      </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
           <t>Пилипенко Г.И.</t>
@@ -3148,10 +3151,8 @@
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="9" t="n"/>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>VI</t>
-        </is>
+      <c r="H14" s="3" t="n">
+        <v>403</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
@@ -3181,8 +3182,10 @@
           <t>Радиотехнические цепи и сигналы: ПР (общ)</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
-        <v>202</v>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>403, 202</t>
+        </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
@@ -3191,7 +3194,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -3207,7 +3210,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A11"/>

--- a/Резы/Респа для ВЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ВЕ-71б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,35 +159,35 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -208,42 +208,42 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -694,7 +694,7 @@
     <col width="57.55" customWidth="1" min="7" max="7"/>
     <col width="83.64999999999999" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1213,13 +1213,13 @@
       <c r="H17" s="21" t="n"/>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 405</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
+          <t>Мерзоцид Г.Ч.
 Новокшенова Р.Г.</t>
         </is>
       </c>
